--- a/DLS_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
+++ b/DLS_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FA0F91-A6E2-3941-87F5-460C1784B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6C220-29FF-BF40-A682-ACC6B21BE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="560" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2001,10 +2001,12 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>97.05</v>
+        <f>97.05/2</f>
+        <v>48.524999999999999</v>
       </c>
       <c r="D2">
-        <v>2.1221097992328311</v>
+        <f>2.12210979923283/2</f>
+        <v>1.0610548996164151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2015,10 +2017,12 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>102.16000000000001</v>
+        <f>102.16/2</f>
+        <v>51.08</v>
       </c>
       <c r="D3">
-        <v>4.8413686081520391</v>
+        <f>4.84136860815204/2</f>
+        <v>2.42068430407602</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2029,10 +2033,12 @@
         <v>7.5</v>
       </c>
       <c r="C4">
-        <v>108.55333333333333</v>
+        <f>108.553333333333/2</f>
+        <v>54.2766666666665</v>
       </c>
       <c r="D4">
-        <v>0.33176296759382834</v>
+        <f>0.331762967593828/2</f>
+        <v>0.165881483796914</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2043,10 +2049,12 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>95.36666666666666</v>
+        <f xml:space="preserve"> 95.3666666666667/2</f>
+        <v>47.683333333333351</v>
       </c>
       <c r="D5">
-        <v>0.7900105484527824</v>
+        <f>0.790010548/2</f>
+        <v>0.39500527400000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,10 +2065,12 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>117.16666666666667</v>
+        <f>117.166666666667/2</f>
+        <v>58.583333333333499</v>
       </c>
       <c r="D6">
-        <v>3.9328382456778819</v>
+        <f>3.932838246/2</f>
+        <v>1.9664191230000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,10 +2081,12 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>99.863333333333344</v>
+        <f>99.8633333333333/2</f>
+        <v>49.931666666666651</v>
       </c>
       <c r="D7">
-        <v>2.3535540500839667</v>
+        <f>2.35355405/2</f>
+        <v>1.176777025</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2085,10 +2097,12 @@
         <v>7.5</v>
       </c>
       <c r="C8">
-        <v>110.63333333333333</v>
+        <f>110.633333333333/2</f>
+        <v>55.316666666666499</v>
       </c>
       <c r="D8">
-        <v>3.3167554426979819</v>
+        <f>3.316755443/2</f>
+        <v>1.6583777215</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2099,10 +2113,12 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>111.22333333333334</v>
+        <f>111.223333333333/2</f>
+        <v>55.611666666666501</v>
       </c>
       <c r="D9">
-        <v>8.363732221123934</v>
+        <f>8.363732221/2</f>
+        <v>4.1818661104999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2113,10 +2129,12 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>102.15666666666668</v>
+        <f>102.156666666667/2</f>
+        <v>51.078333333333497</v>
       </c>
       <c r="D10">
-        <v>0.54250960052948993</v>
+        <f>0.542509601/2</f>
+        <v>0.2712548005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2127,10 +2145,12 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>99.540666666666667</v>
+        <f>99.5406666666667/2</f>
+        <v>49.770333333333348</v>
       </c>
       <c r="D11">
-        <v>3.1979087958643637</v>
+        <f>3.197908796/1</f>
+        <v>3.1979087960000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2161,12 @@
         <v>7.5</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <f>103/2</f>
+        <v>51.5</v>
       </c>
       <c r="D12">
-        <v>1.6784367727144176</v>
+        <f>1.678436773/2</f>
+        <v>0.83921838650000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2155,10 +2177,12 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>100.92333333333333</v>
+        <f>100.923333333333/2</f>
+        <v>50.461666666666503</v>
       </c>
       <c r="D13">
-        <v>1.6393037139794011</v>
+        <f>1.639303714/2</f>
+        <v>0.81965185699999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,10 +2193,12 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>122.843333</v>
+        <f>122.843333/2</f>
+        <v>61.421666500000001</v>
       </c>
       <c r="D14" s="2">
-        <v>1.0596304400000001</v>
+        <f>1.05963044/2</f>
+        <v>0.52981522000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2183,10 +2209,12 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>103.07000000000001</v>
+        <f>103.07/2</f>
+        <v>51.534999999999997</v>
       </c>
       <c r="D15">
-        <v>2.4329714342753817</v>
+        <f>2.432971434/2</f>
+        <v>1.2164857170000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2197,10 +2225,12 @@
         <v>7.5</v>
       </c>
       <c r="C16">
-        <v>99.443333333333328</v>
+        <f>99.4433333333333/2</f>
+        <v>49.72166666666665</v>
       </c>
       <c r="D16">
-        <v>5.3797413196794777</v>
+        <f>5.37974132/2</f>
+        <v>2.68987066</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,10 +2241,12 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>102.52666666666666</v>
+        <f>102.526666666667/2</f>
+        <v>51.263333333333499</v>
       </c>
       <c r="D17">
-        <v>7.6808343730786612</v>
+        <f>7.680834373/2</f>
+        <v>3.8404171864999999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2225,10 +2257,12 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>105.69666666666666</v>
+        <f>105.696666666667/2</f>
+        <v>52.8483333333335</v>
       </c>
       <c r="D18">
-        <v>1.4782816601266071</v>
+        <f>1.47828166/2</f>
+        <v>0.73914082999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2239,10 +2273,12 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>97.839999999999989</v>
+        <f>97.84/2</f>
+        <v>48.92</v>
       </c>
       <c r="D19">
-        <v>0.54428852642693071</v>
+        <f>0.544288526/2</f>
+        <v>0.272144263</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,10 +2289,12 @@
         <v>7.5</v>
       </c>
       <c r="C20">
-        <v>91.04</v>
+        <f>91.04/2</f>
+        <v>45.52</v>
       </c>
       <c r="D20">
-        <v>5.3474433143325601</v>
+        <f>5.347443314/2</f>
+        <v>2.6737216570000002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,10 +2305,12 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>98.353333333333339</v>
+        <f>98.3533333333333/2</f>
+        <v>49.176666666666648</v>
       </c>
       <c r="D21">
-        <v>9.0187369773525763</v>
+        <f>9.018736977/2</f>
+        <v>4.5093684884999998</v>
       </c>
     </row>
   </sheetData>

--- a/DLS_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
+++ b/DLS_Plots/022124_DLSZeta_gradientcopoly_NP1,5,7.5,10_pDNA50to10 copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6C220-29FF-BF40-A682-ACC6B21BE1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9047EC97-342B-1747-A19D-84C01EABD023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>N/P ratio</t>
+  </si>
+  <si>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC08B728-0E4E-459C-B35E-B8791FE171F1}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F15"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,6 +835,38 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>26.35</v>
+      </c>
+      <c r="C18">
+        <v>45.48</v>
+      </c>
+      <c r="D18">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(B18:D18)</f>
+        <v>35.973333333333336</v>
+      </c>
+      <c r="F18">
+        <f>STDEV(B18:D18)</f>
+        <v>9.5655336146674745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f>E18/2</f>
+        <v>17.986666666666668</v>
+      </c>
+      <c r="F19">
+        <f>F18/2</f>
+        <v>4.7827668073337373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1971,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A59CBBF-784B-1C44-9204-97141CFDB3BA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1995,18 +2030,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <f>97.05/2</f>
-        <v>48.524999999999999</v>
+        <v>17.986666666666668</v>
       </c>
       <c r="D2">
-        <f>2.12210979923283/2</f>
-        <v>1.0610548996164151</v>
+        <v>4.7827668073337373</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,15 +2047,15 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f>102.16/2</f>
-        <v>51.08</v>
+        <f>97.05/2</f>
+        <v>48.524999999999999</v>
       </c>
       <c r="D3">
-        <f>4.84136860815204/2</f>
-        <v>2.42068430407602</v>
+        <f>2.12210979923283/2</f>
+        <v>1.0610548996164151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2030,15 +2063,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <f>108.553333333333/2</f>
-        <v>54.2766666666665</v>
+        <f>102.16/2</f>
+        <v>51.08</v>
       </c>
       <c r="D4">
-        <f>0.331762967593828/2</f>
-        <v>0.165881483796914</v>
+        <f>4.84136860815204/2</f>
+        <v>2.42068430407602</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,31 +2079,31 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <f>108.553333333333/2</f>
+        <v>54.2766666666665</v>
+      </c>
+      <c r="D5">
+        <f>0.331762967593828/2</f>
+        <v>0.165881483796914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f xml:space="preserve"> 95.3666666666667/2</f>
         <v>47.683333333333351</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f>0.790010548/2</f>
         <v>0.39500527400000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>117.166666666667/2</f>
-        <v>58.583333333333499</v>
-      </c>
-      <c r="D6">
-        <f>3.932838246/2</f>
-        <v>1.9664191230000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,15 +2111,15 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f>99.8633333333333/2</f>
-        <v>49.931666666666651</v>
+        <f>117.166666666667/2</f>
+        <v>58.583333333333499</v>
       </c>
       <c r="D7">
-        <f>2.35355405/2</f>
-        <v>1.176777025</v>
+        <f>3.932838246/2</f>
+        <v>1.9664191230000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,15 +2127,15 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <f>110.633333333333/2</f>
-        <v>55.316666666666499</v>
+        <f>99.8633333333333/2</f>
+        <v>49.931666666666651</v>
       </c>
       <c r="D8">
-        <f>3.316755443/2</f>
-        <v>1.6583777215</v>
+        <f>2.35355405/2</f>
+        <v>1.176777025</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2110,31 +2143,31 @@
         <v>3</v>
       </c>
       <c r="B9">
+        <v>7.5</v>
+      </c>
+      <c r="C9">
+        <f>110.633333333333/2</f>
+        <v>55.316666666666499</v>
+      </c>
+      <c r="D9">
+        <f>3.316755443/2</f>
+        <v>1.6583777215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>111.223333333333/2</f>
         <v>55.611666666666501</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>8.363732221/2</f>
         <v>4.1818661104999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>102.156666666667/2</f>
-        <v>51.078333333333497</v>
-      </c>
-      <c r="D10">
-        <f>0.542509601/2</f>
-        <v>0.2712548005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2142,15 +2175,15 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <f>99.5406666666667/2</f>
-        <v>49.770333333333348</v>
+        <f>102.156666666667/2</f>
+        <v>51.078333333333497</v>
       </c>
       <c r="D11">
-        <f>3.197908796/1</f>
-        <v>3.1979087960000001</v>
+        <f>0.542509601/2</f>
+        <v>0.2712548005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,15 +2191,15 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <f>103/2</f>
-        <v>51.5</v>
+        <f>99.5406666666667/2</f>
+        <v>49.770333333333348</v>
       </c>
       <c r="D12">
-        <f>1.678436773/2</f>
-        <v>0.83921838650000002</v>
+        <f>3.197908796/1</f>
+        <v>3.1979087960000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2174,31 +2207,31 @@
         <v>4</v>
       </c>
       <c r="B13">
+        <v>7.5</v>
+      </c>
+      <c r="C13">
+        <f>103/2</f>
+        <v>51.5</v>
+      </c>
+      <c r="D13">
+        <f>1.678436773/2</f>
+        <v>0.83921838650000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>100.923333333333/2</f>
         <v>50.461666666666503</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>1.639303714/2</f>
         <v>0.81965185699999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <f>122.843333/2</f>
-        <v>61.421666500000001</v>
-      </c>
-      <c r="D14" s="2">
-        <f>1.05963044/2</f>
-        <v>0.52981522000000003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,15 +2239,15 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <f>103.07/2</f>
-        <v>51.534999999999997</v>
-      </c>
-      <c r="D15">
-        <f>2.432971434/2</f>
-        <v>1.2164857170000001</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <f>122.843333/2</f>
+        <v>61.421666500000001</v>
+      </c>
+      <c r="D15" s="2">
+        <f>1.05963044/2</f>
+        <v>0.52981522000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2222,15 +2255,15 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <f>99.4433333333333/2</f>
-        <v>49.72166666666665</v>
+        <f>103.07/2</f>
+        <v>51.534999999999997</v>
       </c>
       <c r="D16">
-        <f>5.37974132/2</f>
-        <v>2.68987066</v>
+        <f>2.432971434/2</f>
+        <v>1.2164857170000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2238,31 +2271,31 @@
         <v>5</v>
       </c>
       <c r="B17">
+        <v>7.5</v>
+      </c>
+      <c r="C17">
+        <f>99.4433333333333/2</f>
+        <v>49.72166666666665</v>
+      </c>
+      <c r="D17">
+        <f>5.37974132/2</f>
+        <v>2.68987066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>102.526666666667/2</f>
         <v>51.263333333333499</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>7.680834373/2</f>
         <v>3.8404171864999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f>105.696666666667/2</f>
-        <v>52.8483333333335</v>
-      </c>
-      <c r="D18">
-        <f>1.47828166/2</f>
-        <v>0.73914082999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,15 +2303,15 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <f>97.84/2</f>
-        <v>48.92</v>
+        <f>105.696666666667/2</f>
+        <v>52.8483333333335</v>
       </c>
       <c r="D19">
-        <f>0.544288526/2</f>
-        <v>0.272144263</v>
+        <f>1.47828166/2</f>
+        <v>0.73914082999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,15 +2319,15 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <f>91.04/2</f>
-        <v>45.52</v>
+        <f>97.84/2</f>
+        <v>48.92</v>
       </c>
       <c r="D20">
-        <f>5.347443314/2</f>
-        <v>2.6737216570000002</v>
+        <f>0.544288526/2</f>
+        <v>0.272144263</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2302,13 +2335,29 @@
         <v>6</v>
       </c>
       <c r="B21">
+        <v>7.5</v>
+      </c>
+      <c r="C21">
+        <f>91.04/2</f>
+        <v>45.52</v>
+      </c>
+      <c r="D21">
+        <f>5.347443314/2</f>
+        <v>2.6737216570000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f>98.3533333333333/2</f>
         <v>49.176666666666648</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>9.018736977/2</f>
         <v>4.5093684884999998</v>
       </c>
